--- a/material/translation/TermDefinitions/Identifier.xlsx
+++ b/material/translation/TermDefinitions/Identifier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/Birth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_CD56FEBEDA2BA8BF44DB35C98A7A41E4784DAEAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{636719EC-651F-44AE-9505-2C78E9BE1F1E}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_CD56FEBEDA2BA8BF44DB35C98A7A41E4784DAEAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35A9C4C4-84AC-4860-A5E0-F799A5B65C0F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fr" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="en" sheetId="2" r:id="rId5"/>
     <sheet name="Terms" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
   <si>
     <t>Term</t>
   </si>
@@ -53,22 +53,70 @@
     <t>Verified</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Content - alpha-numeric string</t>
+  </si>
+  <si>
+    <t>GR/GR/12345678</t>
+  </si>
+  <si>
+    <t>Identifier Type</t>
+  </si>
+  <si>
+    <t>The type of identifier issued (if the authority issues more than one type of identifier).</t>
+  </si>
+  <si>
+    <t>eIDAS eID</t>
+  </si>
+  <si>
+    <t>Issue Date</t>
+  </si>
+  <si>
+    <t>The date on which it was issued</t>
+  </si>
+  <si>
+    <t>1957-08-13</t>
+  </si>
+  <si>
+    <t>Issuing Authority</t>
+  </si>
+  <si>
+    <t>The name of the issuing agency</t>
+  </si>
+  <si>
+    <t>Institute of Registry and Notary</t>
+  </si>
+  <si>
+    <t>Issuing Authority ID</t>
+  </si>
+  <si>
+    <t>The issuing agency ID</t>
+  </si>
+  <si>
+    <t>GR-12345678</t>
+  </si>
+  <si>
     <t>Term URI</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Optional</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Identifier</t>
+    <t>CVA</t>
   </si>
   <si>
     <t>Identifier/Identifier</t>
@@ -77,85 +125,43 @@
     <t>cvb:IdentifierType</t>
   </si>
   <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Content - alpha-numeric string</t>
+    <t>UDT/Text</t>
+  </si>
+  <si>
+    <t>00</t>
   </si>
   <si>
     <t>Identifier/IdentifierType</t>
   </si>
   <si>
+    <t>cvb:IdentifierTypeType</t>
+  </si>
+  <si>
     <t>Identifier/IssueDate</t>
   </si>
   <si>
+    <t>cbc:IssueDateType</t>
+  </si>
+  <si>
+    <t>UDT/Date</t>
+  </si>
+  <si>
     <t>Identifier/IssuingAuthority</t>
   </si>
   <si>
+    <t>cvb:IssuingAuthorityType</t>
+  </si>
+  <si>
     <t>Identifier/IssuingAuthorityID</t>
   </si>
   <si>
-    <t>GR/GR/12345678</t>
-  </si>
-  <si>
-    <t>eIDAS eID</t>
-  </si>
-  <si>
-    <t>1957-08-13</t>
-  </si>
-  <si>
-    <t>The date on which it was issued</t>
-  </si>
-  <si>
-    <t>The issuing agency ID</t>
-  </si>
-  <si>
-    <t>Institute of Registry and Notary</t>
-  </si>
-  <si>
-    <t>The name of the issuing agency</t>
-  </si>
-  <si>
-    <t>GR-12345678</t>
-  </si>
-  <si>
-    <t>UDT/Text</t>
-  </si>
-  <si>
-    <t>CVA</t>
-  </si>
-  <si>
-    <t>cvb:IdentifierTypeType</t>
-  </si>
-  <si>
-    <t>cbc:IssueDateType</t>
-  </si>
-  <si>
-    <t>UDT/Date</t>
-  </si>
-  <si>
-    <t>cvb:IssuingAuthorityType</t>
-  </si>
-  <si>
     <t>cvb:IssuingAuthorityIDType</t>
   </si>
   <si>
     <t>UDT/Identifier</t>
   </si>
   <si>
-    <t>Identifier Type</t>
-  </si>
-  <si>
-    <t>Issue Date</t>
-  </si>
-  <si>
-    <t>Issuing Authority</t>
-  </si>
-  <si>
-    <t>Issuing Authority ID</t>
-  </si>
-  <si>
-    <t>The type of identifier issued (if the authority issues more than one type of identifier).</t>
+    <t>The Identifier class allows an identifier to be given as well as information about which authority issued it and, if needed, when.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +576,7 @@
         <v>Identifier</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -579,7 +585,7 @@
         <v>Identifier/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -588,7 +594,7 @@
         <v>Identifier/IdentifierType</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -597,7 +603,7 @@
         <v>Identifier/IssueDate</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -606,7 +612,7 @@
         <v>Identifier/IssuingAuthority</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -615,7 +621,7 @@
         <v>Identifier/IssuingAuthorityID</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -633,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -643,7 +649,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -652,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -708,7 +714,7 @@
         <v>Identifier</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -717,7 +723,7 @@
         <v>Identifier/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -726,7 +732,7 @@
         <v>Identifier/IdentifierType</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -735,7 +741,7 @@
         <v>Identifier/IssueDate</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -744,7 +750,7 @@
         <v>Identifier/IssuingAuthority</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -753,7 +759,7 @@
         <v>Identifier/IssuingAuthorityID</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -762,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -771,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,7 +787,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -843,7 +849,7 @@
         <v>Identifier</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -852,7 +858,7 @@
         <v>Identifier/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -861,7 +867,7 @@
         <v>Identifier/IdentifierType</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -870,7 +876,7 @@
         <v>Identifier/IssueDate</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -879,7 +885,7 @@
         <v>Identifier/IssuingAuthority</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -888,7 +894,7 @@
         <v>Identifier/IssuingAuthorityID</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -897,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -906,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -916,7 +922,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -925,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -984,7 +990,7 @@
         <v>Identifier</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -993,7 +999,7 @@
         <v>Identifier/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1002,7 +1008,7 @@
         <v>Identifier/IdentifierType</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1011,7 +1017,7 @@
         <v>Identifier/IssueDate</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1020,7 +1026,7 @@
         <v>Identifier/IssuingAuthority</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1029,7 +1035,7 @@
         <v>Identifier/IssuingAuthorityID</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1038,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1057,7 +1063,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1066,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1120,14 +1126,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="70.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1147,13 +1155,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>Terms!A2</f>
         <v>Identifier</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1162,13 +1176,16 @@
         <v>Identifier/Identifier</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1177,13 +1194,16 @@
         <v>Identifier/IdentifierType</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1192,13 +1212,16 @@
         <v>Identifier/IssueDate</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1207,13 +1230,16 @@
         <v>Identifier/IssuingAuthority</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1222,13 +1248,16 @@
         <v>Identifier/IssuingAuthorityID</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1246,7 +1275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1257,102 +1288,107 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D7" xr:uid="{9BD30D81-4B96-4E33-8557-080EB9424BC3}">
+      <formula1>"00,01,10,11"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x0101007E289342E878A3439E8711FFF848F32F" ma:contentTypeVersion="11" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="46ceb6b1ca17f648485ffad8d87a7461">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="387b4333-7bd0-482a-b673-9a586eb2ceee" xmlns:ns3="4aa09831-7f3d-42ba-9b8c-49994d1626d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a21b98261e948a646c8dae0c6b0aefd5" ns2:_="" ns3:_="">
     <xsd:import namespace="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
@@ -1563,13 +1599,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F4DB1E3-ED74-4131-A145-E5AAC4244613}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D4207B-C7E9-4939-8C67-285AD4F23CD1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1581,20 +1627,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FD51D8-5A43-457B-8F0A-FAD11D35BC87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F4DB1E3-ED74-4131-A145-E5AAC4244613}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
-    <ds:schemaRef ds:uri="4aa09831-7f3d-42ba-9b8c-49994d1626d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>